--- a/nls_crc/sim_high_variance/3.MSE/Comparison_HV.xlsx
+++ b/nls_crc/sim_high_variance/3.MSE/Comparison_HV.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\Work\Python\CCB\nls_drc\sim_high_variance\3.MSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67011860-D9A2-4B89-B3AA-56B5C5592807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4D97BE-9955-4E47-9F8D-AF21BCFB24BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2a_unnorm_ctrl" sheetId="1" r:id="rId1"/>
+    <sheet name="Change_Format" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>mean</t>
   </si>
@@ -53,19 +55,91 @@
     <t>2a_unnorm_ctrl</t>
   </si>
   <si>
+    <t>2f_norm_ctrl</t>
+  </si>
+  <si>
+    <t>2b_norm</t>
+  </si>
+  <si>
     <t>2c_norm_fixed_1</t>
   </si>
   <si>
-    <t>2f_norm_ctrl</t>
-  </si>
-  <si>
     <t>2d_norm_fixed_2</t>
   </si>
   <si>
-    <t>2b_norm</t>
-  </si>
-  <si>
     <t>2e_norm_fixed_both</t>
+  </si>
+  <si>
+    <t>$R_{b}$</t>
+  </si>
+  <si>
+    <t>$R_{t}$</t>
+  </si>
+  <si>
+    <t>$log_{10}(x50)$</t>
+  </si>
+  <si>
+    <t>$H$</t>
+  </si>
+  <si>
+    <t>1.158E+0 (7.081E-2)</t>
+  </si>
+  <si>
+    <t>1.829E+0 (8.477E-2)</t>
+  </si>
+  <si>
+    <t>1.297E-3 (5.326E-5)</t>
+  </si>
+  <si>
+    <t>5.522E-3 (2.738E-4)</t>
+  </si>
+  <si>
+    <t>1.161E+0 (7.091E-2)</t>
+  </si>
+  <si>
+    <t>1.830E+0 (8.484E-2)</t>
+  </si>
+  <si>
+    <t>1.297E-3 (5.329E-5)</t>
+  </si>
+  <si>
+    <t>5.522E-3 (2.736E-4)</t>
+  </si>
+  <si>
+    <t>6.986E+0 (4.430E-1)</t>
+  </si>
+  <si>
+    <t>3.788E+0 (1.348E-1)</t>
+  </si>
+  <si>
+    <t>1.741E-3 (9.073E-5)</t>
+  </si>
+  <si>
+    <t>7.493E-3 (2.689E-4)</t>
+  </si>
+  <si>
+    <t>3.789E+0 (1.358E-1)</t>
+  </si>
+  <si>
+    <t>1.435E-3 (4.721E-5)</t>
+  </si>
+  <si>
+    <t>6.272E-3 (1.821E-4)</t>
+  </si>
+  <si>
+    <t>7.228E+0 (4.019E-1)</t>
+  </si>
+  <si>
+    <t>1.866E-3 (7.977E-5)</t>
+  </si>
+  <si>
+    <t>8.863E-3 (7.255E-4)</t>
+  </si>
+  <si>
+    <t>1.802E-3 (1.880E-5)</t>
+  </si>
+  <si>
+    <t>6.791E-3 (4.756E-4)</t>
   </si>
 </sst>
 </file>
@@ -906,17 +980,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A73F4-AED8-4DA3-8921-FE162A04C82C}">
+  <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -931,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -945,14 +1019,14 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.478019719074331</v>
+        <v>1.1581460721577199</v>
       </c>
       <c r="D2">
-        <v>1.7870476335835501E-2</v>
+        <v>7.0813112131891995E-2</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE(TEXT(C2,"0.00000"),"±",TEXT(D2,"0.00000"))</f>
-        <v>0.47802±0.01787</v>
+        <f>CONCATENATE(TEXT(C2,"0.000E+0")," ","(",TEXT(D2,"0.000E+0"),")")</f>
+        <v>1.158E+0 (7.081E-2)</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -963,14 +1037,14 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.24657873401397801</v>
+        <v>1.8287444094452401</v>
       </c>
       <c r="D3">
-        <v>7.6867106028915902E-3</v>
+        <v>8.4765631870915403E-2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">CONCATENATE(TEXT(C3,"0.00000"),"±",TEXT(D3,"0.00000"))</f>
-        <v>0.24658±0.00769</v>
+        <f t="shared" ref="E3:E5" si="0">CONCATENATE(TEXT(C3,"0.000E+0")," ","(",TEXT(D3,"0.000E+0"),")")</f>
+        <v>1.829E+0 (8.477E-2)</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -982,8 +1056,8 @@
         <v>0.13578007296153199</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J5" si="1">CONCATENATE(TEXT(H3,"0.00000"),"±",TEXT(I3,"0.00000"))</f>
-        <v>3.78891±0.13578</v>
+        <f t="shared" ref="J3:J5" si="1">CONCATENATE(TEXT(H3,"0.000E+0")," ","(",TEXT(I3,"0.000E+0"),")")</f>
+        <v>3.789E+0 (1.358E-1)</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
@@ -991,14 +1065,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.2970528541669101E-3</v>
+        <v>1.2970294867885299E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>5.3269545193191903E-5</v>
+        <v>5.3263030145943198E-5</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>0.00130±0.00005</v>
+        <v>1.297E-3 (5.326E-5)</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -1011,7 +1085,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
-        <v>0.00144±0.00005</v>
+        <v>1.435E-3 (4.721E-5)</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -1019,14 +1093,14 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5.5220434553637501E-3</v>
+        <v>5.5218223361655902E-3</v>
       </c>
       <c r="D5">
-        <v>2.7379782363010199E-4</v>
+        <v>2.7381112739713998E-4</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>0.00552±0.00027</v>
+        <v>5.522E-3 (2.738E-4)</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1039,12 +1113,12 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
-        <v>0.00627±0.00018</v>
+        <v>6.272E-3 (1.821E-4)</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -1053,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -1067,14 +1141,14 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1.1612015117858601</v>
+        <v>1.1607708737867599</v>
       </c>
       <c r="D8">
-        <v>7.0979502293351301E-2</v>
+        <v>7.0906568256865102E-2</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" ref="E8:E11" si="2">CONCATENATE(TEXT(C8,"0.00000"),"±",TEXT(D8,"0.00000"))</f>
-        <v>1.16120±0.07098</v>
+        <f t="shared" ref="E8:E11" si="2">CONCATENATE(TEXT(C8,"0.000E+0")," ","(",TEXT(D8,"0.000E+0"),")")</f>
+        <v>1.161E+0 (7.091E-2)</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
@@ -1086,8 +1160,8 @@
         <v>0.40189043448040401</v>
       </c>
       <c r="J8" t="str">
-        <f>CONCATENATE(TEXT(H8,"0.00000"),"±",TEXT(I8,"0.00000"))</f>
-        <v>7.22845±0.40189</v>
+        <f>CONCATENATE(TEXT(H8,"0.000E+0")," ","(",TEXT(I8,"0.000E+0"),")")</f>
+        <v>7.228E+0 (4.019E-1)</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
@@ -1095,14 +1169,14 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>1.8297048715586901</v>
+        <v>1.82956004770451</v>
       </c>
       <c r="D9">
-        <v>8.4825320954694E-2</v>
+        <v>8.4838242938704303E-2</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
-        <v>1.82970±0.08483</v>
+        <v>1.830E+0 (8.484E-2)</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -1113,14 +1187,14 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1.2970958007855701E-3</v>
+        <v>1.2970631183762699E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>5.3286778365906801E-5</v>
+        <v>5.3287587229990003E-5</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
-        <v>0.00130±0.00005</v>
+        <v>1.297E-3 (5.329E-5)</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -1132,8 +1206,8 @@
         <v>7.9772170243632296E-5</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ref="J9:J11" si="3">CONCATENATE(TEXT(H10,"0.00000"),"±",TEXT(I10,"0.00000"))</f>
-        <v>0.00187±0.00008</v>
+        <f t="shared" ref="J10:J11" si="3">CONCATENATE(TEXT(H10,"0.000E+0")," ","(",TEXT(I10,"0.000E+0"),")")</f>
+        <v>1.866E-3 (7.977E-5)</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
@@ -1141,14 +1215,14 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>5.5223024796082097E-3</v>
+        <v>5.5222656979085297E-3</v>
       </c>
       <c r="D11">
-        <v>2.7364745941439402E-4</v>
+        <v>2.7360108473257599E-4</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
-        <v>0.00552±0.00027</v>
+        <v>5.522E-3 (2.736E-4)</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1161,12 +1235,12 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>0.00886±0.00073</v>
+        <v>8.863E-3 (7.255E-4)</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1195,8 +1269,8 @@
         <v>0.44304871962596798</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ref="E14:E17" si="4">CONCATENATE(TEXT(C14,"0.00000"),"±",TEXT(D14,"0.00000"))</f>
-        <v>6.98616±0.44305</v>
+        <f t="shared" ref="E14:E17" si="4">CONCATENATE(TEXT(C14,"0.000E+0")," ","(",TEXT(D14,"0.000E+0"),")")</f>
+        <v>6.986E+0 (4.430E-1)</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
@@ -1214,7 +1288,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="4"/>
-        <v>3.78801±0.13476</v>
+        <v>3.788E+0 (1.348E-1)</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
@@ -1232,7 +1306,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="4"/>
-        <v>0.00174±0.00009</v>
+        <v>1.741E-3 (9.073E-5)</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
@@ -1244,8 +1318,8 @@
         <v>1.8802119839997701E-5</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16:J17" si="5">CONCATENATE(TEXT(H16,"0.00000"),"±",TEXT(I16,"0.00000"))</f>
-        <v>0.00180±0.00002</v>
+        <f t="shared" ref="J16:J17" si="5">CONCATENATE(TEXT(H16,"0.000E+0")," ","(",TEXT(I16,"0.000E+0"),")")</f>
+        <v>1.802E-3 (1.880E-5)</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
@@ -1260,7 +1334,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="4"/>
-        <v>0.00749±0.00027</v>
+        <v>7.493E-3 (2.689E-4)</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1273,7 +1347,107 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="5"/>
-        <v>0.00679±0.00048</v>
+        <v>6.791E-3 (4.756E-4)</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
